--- a/usbmap.xlsx
+++ b/usbmap.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daan\Documents\Atmel Studio\7.0\TurnTable\TurnTable\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0351A37B-791B-4C17-A00D-9441EF2721F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="21120" windowHeight="10005"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -402,7 +408,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -572,7 +578,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -588,22 +594,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -971,22 +971,25 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel2" displayName="Tabel2" ref="C5:K57" headerRowCount="0" headerRowDxfId="20" totalsRowDxfId="18" tableBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabel2" displayName="Tabel2" ref="C5:K57" headerRowCount="0" headerRowDxfId="20" totalsRowDxfId="18" tableBorderDxfId="19">
   <tableColumns count="9">
-    <tableColumn id="9" name="Byte" totalsRowLabel="Totaal" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="1" name="2" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="2" name="22" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="3" name="23" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="4" name="24" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="5" name="25" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="6" name="26" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="7" name="27" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="8" name="28" totalsRowFunction="count" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Byte" totalsRowLabel="Totaal" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="2" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="22" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="23" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="24" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="25" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="26" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="27" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="28" totalsRowFunction="count" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -995,7 +998,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1033,9 +1036,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1068,9 +1071,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1103,9 +1123,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1278,11 +1315,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B5:K70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1518,643 +1555,643 @@
       <c r="G12" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="H12" s="1"/>
+      <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="1"/>
+      <c r="J12" s="3"/>
       <c r="K12" s="10"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="13" t="s">
+      <c r="D13" s="10"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="9"/>
     </row>
     <row r="14" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="13" t="s">
+      <c r="D14" s="8"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="7"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="17" t="s">
+      <c r="D15" s="8"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="7"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="15" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="10"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="19" t="s">
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
       <c r="K16" s="9"/>
     </row>
     <row r="17" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="15" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
       <c r="K17" s="5"/>
     </row>
     <row r="18" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="18" t="s">
+      <c r="D18" s="10"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="6"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="9"/>
     </row>
     <row r="19" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="8"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="5"/>
     </row>
     <row r="20" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="13" t="s">
+      <c r="D20" s="10"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="8"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="9"/>
     </row>
     <row r="21" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="8"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="5"/>
     </row>
     <row r="22" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="13" t="s">
+      <c r="D22" s="10"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="8"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="9"/>
     </row>
     <row r="23" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="8"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="5"/>
     </row>
     <row r="24" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="13" t="s">
+      <c r="D24" s="10"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="8"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="9"/>
     </row>
     <row r="25" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="8"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="5"/>
     </row>
     <row r="26" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="13" t="s">
+      <c r="D26" s="10"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="8"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="9"/>
     </row>
     <row r="27" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="8"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="5"/>
     </row>
     <row r="28" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="13" t="s">
+      <c r="D28" s="10"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="8"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="9"/>
     </row>
     <row r="29" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="8"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="5"/>
     </row>
     <row r="30" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="13" t="s">
+      <c r="D30" s="10"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="8"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="9"/>
     </row>
     <row r="31" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="8"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="5"/>
     </row>
     <row r="32" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="13" t="s">
+      <c r="D32" s="10"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="8"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="9"/>
     </row>
     <row r="33" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="8"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="5"/>
     </row>
     <row r="34" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="13" t="s">
+      <c r="D34" s="10"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="8"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="9"/>
     </row>
     <row r="35" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="8"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="5"/>
     </row>
     <row r="36" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="13" t="s">
+      <c r="D36" s="10"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="8"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="9"/>
     </row>
     <row r="37" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="8"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="5"/>
     </row>
     <row r="38" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="13" t="s">
+      <c r="D38" s="10"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="8"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="9"/>
     </row>
     <row r="39" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="8"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="5"/>
     </row>
     <row r="40" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="13" t="s">
+      <c r="D40" s="10"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="8"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="9"/>
     </row>
     <row r="41" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="8"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="5"/>
     </row>
     <row r="42" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="13" t="s">
+      <c r="D42" s="10"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="8"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="9"/>
     </row>
     <row r="43" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="8"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="5"/>
     </row>
     <row r="44" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="13" t="s">
+      <c r="D44" s="10"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="8"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="9"/>
     </row>
     <row r="45" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="8"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="5"/>
     </row>
     <row r="46" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="13" t="s">
+      <c r="D46" s="10"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="8"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="9"/>
     </row>
     <row r="47" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="8"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="5"/>
     </row>
     <row r="48" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="13" t="s">
+      <c r="D48" s="10"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="8"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="9"/>
     </row>
     <row r="49" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="8"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="5"/>
     </row>
     <row r="50" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="13" t="s">
+      <c r="D50" s="10"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="8"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="9"/>
     </row>
     <row r="51" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="8"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="14"/>
+      <c r="K51" s="5"/>
     </row>
     <row r="52" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="13" t="s">
+      <c r="D52" s="10"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="8"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="13"/>
+      <c r="K52" s="9"/>
     </row>
     <row r="53" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="8"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="5"/>
     </row>
     <row r="54" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="13" t="s">
+      <c r="D54" s="10"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="8"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="13"/>
+      <c r="K54" s="9"/>
     </row>
     <row r="55" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="8"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="14"/>
+      <c r="K55" s="5"/>
     </row>
     <row r="56" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="13" t="s">
+      <c r="D56" s="10"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="8"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="13"/>
+      <c r="K56" s="9"/>
     </row>
     <row r="57" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C57" s="9" t="s">
+      <c r="C57" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="10"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="14"/>
+      <c r="K57" s="5"/>
     </row>
     <row r="58" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C58" s="2"/>
@@ -2309,7 +2346,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2321,7 +2358,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
